--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/46_Kastamonu_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/46_Kastamonu_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE8D66C0-3ECD-4AB2-9E87-D1A6D734D8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{410E2584-3047-46F0-8AD8-24B2528FA99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{6D106796-6003-47C1-B716-7CE0E48FFD37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{895D9559-D9B2-48BF-BFE5-B62B0C07D44F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A04920DD-FDD2-43A4-9462-E0EE9A963D7F}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{DDF08271-50A9-4E47-AB2C-B9EBF3E0CE57}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{B861B3BB-7AB1-4B0B-9BF8-63E9CA1E121E}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{84C6FC85-43C9-40D7-A7D3-14A3CAAEDBCA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{532387D8-4360-4CDC-86F3-B9EA4FE2383F}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{C42EE055-EB59-40C4-A62E-63DAD03E7698}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{208D0767-D190-4E75-983F-E9FA920C67C5}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B92174F0-C955-4C52-9B4E-2FD125E5A147}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{4EDB7723-67C5-4878-9F66-124B3FCD4D65}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{6375F971-E066-4E24-91C7-EE8BFBB55603}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{B7228470-1E60-4475-B3AF-9691EAC94F49}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{A0D47377-9DD2-43BC-B9D7-32F3C3B75AC1}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{52901EC3-3F5A-42ED-9F01-456738C9F20E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{AF622E09-3138-4FB2-9836-C07DD7AC27C8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF3C0D7-544C-4701-BBC6-4F1FE3CC3660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC55B12-5613-4538-B981-9D2CB7534A92}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2552,7 +2552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D27F71-16A1-4071-9FE7-4E671DCFB4D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C8F67-450E-433D-819B-9DAF2864ADC2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3819,7 +3819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27234EB-FB94-404C-ABF5-E861907D3F83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786AF06F-3C9F-4F4B-8CC3-DDE3A58A12E7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5086,7 +5086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D2E815-9B1E-433A-A00C-F3A36F687A71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE6AC67-D4E3-4636-B0B0-AAE967A51710}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6337,7 +6337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAB77A0-65F3-45AF-BB87-CF7C0189373C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E09405-2851-459D-BD49-296572D784F3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7612,7 +7612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECC3865-9D1D-4BFE-8D26-F61EDE64F2E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DB1AC0-31CF-466F-AB12-C4637A847B8D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8887,7 +8887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03F7FD7-B0F4-4984-A5AC-85B2BA5CDB70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21F47C5-8368-4B01-88E9-088C683F7EEF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10160,7 +10160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615F5C6A-2C22-49AC-A251-E4965C893C00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EE1293-C718-416A-89AC-0CE4AAE66410}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11429,7 +11429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64807BEB-3F9F-4373-A0BA-8646672438D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF26D56-BE84-4273-9B0A-42AF48FCA133}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12698,7 +12698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2740E33-02A0-437F-AD22-4288C5C15B8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F309643C-D6E6-4AEB-B670-0457CF8B3702}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13969,7 +13969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776F1992-C26C-4B8E-AD6C-DE3734829B64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98C5685-83E7-4CC0-B77F-F2B3C3FFF0AE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15236,7 +15236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E301E788-A4D8-445C-BC57-5D7114E0B4BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA74D88-8909-47F1-B095-9D60F25B797E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
